--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\chargebacks\20160620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\GitHub\chargebacks\20160620\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView minimized="1" xWindow="15210" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="chargebacks">Sheet2!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="189">
   <si>
     <t>GENIE Fly Work</t>
   </si>
@@ -495,9 +498,6 @@
     <t>SH Post Processing</t>
   </si>
   <si>
-    <t>20160527_100_SH</t>
-  </si>
-  <si>
     <t>filing papers</t>
   </si>
   <si>
@@ -568,6 +568,33 @@
   </si>
   <si>
     <t>create protocol 5.39</t>
+  </si>
+  <si>
+    <t>Reiser, SH, KK, XZ, Mike Dolan</t>
+  </si>
+  <si>
+    <t>crosses</t>
+  </si>
+  <si>
+    <t>check HD space</t>
+  </si>
+  <si>
+    <t>email Aaron about 800 instruction</t>
+  </si>
+  <si>
+    <t>renaming</t>
+  </si>
+  <si>
+    <t>20160602_100_KK</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>slidemaps</t>
+  </si>
+  <si>
+    <t>verify all backups</t>
   </si>
 </sst>
 </file>
@@ -964,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:XFD381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2250,7 @@
         <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2439,7 +2466,7 @@
         <v>91</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,10 +2513,10 @@
         <v>0.375</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,7 +2541,7 @@
         <v>91</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,7 +2591,7 @@
         <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,7 +2616,7 @@
         <v>91</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,7 +2641,7 @@
         <v>91</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,7 +2694,7 @@
         <v>90</v>
       </c>
       <c r="D121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,7 +2708,7 @@
         <v>86</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,7 +2764,7 @@
         <v>122</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E126" t="s">
         <v>142</v>
@@ -2771,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,7 +2829,7 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,7 +2885,7 @@
         <v>144</v>
       </c>
       <c r="E134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,10 +2913,10 @@
         <v>122</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2969,7 @@
         <v>90</v>
       </c>
       <c r="D140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3115,7 +3142,7 @@
         <v>122</v>
       </c>
       <c r="D153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
         <v>142</v>
@@ -3132,7 +3159,7 @@
         <v>122</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E154" t="s">
         <v>118</v>
@@ -3149,7 +3176,7 @@
         <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E155" t="s">
         <v>115</v>
@@ -3166,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3233,10 +3260,10 @@
         <v>122</v>
       </c>
       <c r="D161" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161" t="s">
         <v>175</v>
-      </c>
-      <c r="E161" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,7 +3294,7 @@
         <v>122</v>
       </c>
       <c r="D163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E163" t="s">
         <v>118</v>
@@ -3298,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E165" t="s">
         <v>118</v>
@@ -3326,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,7 +3367,7 @@
         <v>122</v>
       </c>
       <c r="D168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E168" t="s">
         <v>115</v>
@@ -3371,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E170" t="s">
         <v>142</v>
@@ -3382,72 +3409,331 @@
         <v>42566</v>
       </c>
       <c r="B171" s="2">
-        <v>0.59375</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A176" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C176" t="s">
+        <v>90</v>
+      </c>
+      <c r="D176" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C177" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" t="s">
+        <v>184</v>
+      </c>
+      <c r="E177" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C178" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" t="s">
+        <v>184</v>
+      </c>
+      <c r="E178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>90</v>
+      </c>
+      <c r="D179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C180" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C181" t="s">
+        <v>138</v>
+      </c>
+      <c r="D181" t="s">
+        <v>187</v>
+      </c>
+      <c r="E181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C182" t="s">
+        <v>138</v>
+      </c>
+      <c r="D182" t="s">
+        <v>187</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C183" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" t="s">
+        <v>188</v>
+      </c>
+      <c r="E183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C184" t="s">
+        <v>138</v>
+      </c>
+      <c r="D184" t="s">
+        <v>188</v>
+      </c>
+      <c r="E184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>chargebacks</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$100</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C167 C172:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C168:C171</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3456,7 +3742,7 @@
   <dimension ref="A1:J391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A49"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="15210" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="17550" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -991,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:XFD381"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3648,7 @@
         <v>42569</v>
       </c>
       <c r="B187" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3725,6 +3725,24 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\GitHub\chargebacks\20160620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\chargebacks\20160620\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="19890" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="213">
   <si>
     <t>GENIE Fly Work</t>
   </si>
@@ -471,18 +471,12 @@
     <t>discuss w/ SH</t>
   </si>
   <si>
-    <t>find conditions w/ no bleed thru</t>
-  </si>
-  <si>
     <t>write protocol</t>
   </si>
   <si>
     <t>63X imaging</t>
   </si>
   <si>
-    <t>20X imaging</t>
-  </si>
-  <si>
     <t>test protocol, write analysis code</t>
   </si>
   <si>
@@ -595,6 +589,84 @@
   </si>
   <si>
     <t>verify all backups</t>
+  </si>
+  <si>
+    <t>discuss how to find conditions w/ no bleed thru</t>
+  </si>
+  <si>
+    <t>20X imaging &amp; control exps</t>
+  </si>
+  <si>
+    <t>copy; MIPS</t>
+  </si>
+  <si>
+    <t>XZ - Post Processing</t>
+  </si>
+  <si>
+    <t>update slidemaps</t>
+  </si>
+  <si>
+    <t>QC - diff caused by change to max pixel int &amp; max sat % not obvious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> confocal</t>
+  </si>
+  <si>
+    <t>XZ - Setup (3)</t>
+  </si>
+  <si>
+    <t>learn 800 Microscope</t>
+  </si>
+  <si>
+    <t>SH - Setup</t>
+  </si>
+  <si>
+    <t>for Misha on 800.</t>
+  </si>
+  <si>
+    <t>20160712-03_SH</t>
+  </si>
+  <si>
+    <t>test protocol 5.39</t>
+  </si>
+  <si>
+    <t>SH - Post Process</t>
+  </si>
+  <si>
+    <t>fitness mtg</t>
+  </si>
+  <si>
+    <t>copy files</t>
+  </si>
+  <si>
+    <t>XZ - Post Processing (3)</t>
+  </si>
+  <si>
+    <t>PTR-IHC: Misha, XZ, SH, MD</t>
+  </si>
+  <si>
+    <t>AiryScan postprocessing</t>
+  </si>
+  <si>
+    <t>KK - Post Processing</t>
+  </si>
+  <si>
+    <t>AiryScan PP</t>
+  </si>
+  <si>
+    <t>show Zhengchang how to postprocess AiryScan files</t>
+  </si>
+  <si>
+    <t>flip parents &amp; stocks</t>
+  </si>
+  <si>
+    <t>thaw media</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>timesheet</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:A218"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,10 +2170,10 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E78" t="s">
         <v>94</v>
@@ -2118,7 +2190,7 @@
         <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
         <v>94</v>
@@ -2129,13 +2201,16 @@
         <v>42549</v>
       </c>
       <c r="B80" s="2">
-        <v>0.75138888888888899</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2143,16 +2218,10 @@
         <v>42549</v>
       </c>
       <c r="B81" s="2">
-        <v>0.78125</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2160,38 +2229,41 @@
         <v>42549</v>
       </c>
       <c r="B82" s="2">
-        <v>0.85138888888888886</v>
+        <v>0.75138888888888899</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42550</v>
+        <v>42549</v>
       </c>
       <c r="B83" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.78125</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>148</v>
+      </c>
+      <c r="E83" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42550</v>
+        <v>42549</v>
       </c>
       <c r="B84" s="2">
-        <v>0.36805555555555558</v>
+        <v>0.85138888888888886</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,13 +2271,13 @@
         <v>42550</v>
       </c>
       <c r="B85" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,13 +2285,13 @@
         <v>42550</v>
       </c>
       <c r="B86" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C86" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,13 +2299,13 @@
         <v>42550</v>
       </c>
       <c r="B87" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,16 +2313,13 @@
         <v>42550</v>
       </c>
       <c r="B88" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
-      </c>
-      <c r="E88" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,13 +2327,13 @@
         <v>42550</v>
       </c>
       <c r="B89" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,10 +2341,16 @@
         <v>42550</v>
       </c>
       <c r="B90" s="2">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>153</v>
+      </c>
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,7 +2358,7 @@
         <v>42550</v>
       </c>
       <c r="B91" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -2297,16 +2372,10 @@
         <v>42550</v>
       </c>
       <c r="B92" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,7 +2383,7 @@
         <v>42550</v>
       </c>
       <c r="B93" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -2328,7 +2397,7 @@
         <v>42550</v>
       </c>
       <c r="B94" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C94" t="s">
         <v>122</v>
@@ -2345,7 +2414,7 @@
         <v>42550</v>
       </c>
       <c r="B95" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -2359,7 +2428,7 @@
         <v>42550</v>
       </c>
       <c r="B96" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -2368,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="E96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2445,7 @@
         <v>42550</v>
       </c>
       <c r="B97" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -2390,13 +2459,16 @@
         <v>42550</v>
       </c>
       <c r="B98" s="2">
-        <v>0.65625</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,13 +2476,13 @@
         <v>42550</v>
       </c>
       <c r="B99" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,13 +2490,13 @@
         <v>42550</v>
       </c>
       <c r="B100" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.65625</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,13 +2504,10 @@
         <v>42550</v>
       </c>
       <c r="B101" s="2">
-        <v>0.69791666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C101" t="s">
         <v>122</v>
-      </c>
-      <c r="D101" t="s">
-        <v>84</v>
       </c>
       <c r="E101" t="s">
         <v>142</v>
@@ -2449,29 +2518,35 @@
         <v>42550</v>
       </c>
       <c r="B102" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>42551</v>
+        <v>42550</v>
       </c>
       <c r="B103" s="2">
-        <v>0.375</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="E103" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>42551</v>
+        <v>42550</v>
       </c>
       <c r="B104" s="2">
         <v>0.70833333333333337</v>
@@ -2482,7 +2557,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42552</v>
+        <v>42551</v>
       </c>
       <c r="B105" s="2">
         <v>0.375</v>
@@ -2491,12 +2566,12 @@
         <v>91</v>
       </c>
       <c r="D105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42552</v>
+        <v>42551</v>
       </c>
       <c r="B106" s="2">
         <v>0.70833333333333337</v>
@@ -2507,21 +2582,21 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42555</v>
+        <v>42552</v>
       </c>
       <c r="B107" s="2">
         <v>0.375</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42555</v>
+        <v>42552</v>
       </c>
       <c r="B108" s="2">
         <v>0.70833333333333337</v>
@@ -2532,21 +2607,21 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42556</v>
+        <v>42555</v>
       </c>
       <c r="B109" s="2">
         <v>0.375</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42556</v>
+        <v>42555</v>
       </c>
       <c r="B110" s="2">
         <v>0.70833333333333337</v>
@@ -2557,7 +2632,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42557</v>
+        <v>42556</v>
       </c>
       <c r="B111" s="2">
         <v>0.375</v>
@@ -2566,12 +2641,12 @@
         <v>91</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42557</v>
+        <v>42556</v>
       </c>
       <c r="B112" s="2">
         <v>0.70833333333333337</v>
@@ -2582,7 +2657,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42558</v>
+        <v>42557</v>
       </c>
       <c r="B113" s="2">
         <v>0.375</v>
@@ -2591,12 +2666,12 @@
         <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42558</v>
+        <v>42557</v>
       </c>
       <c r="B114" s="2">
         <v>0.70833333333333337</v>
@@ -2607,7 +2682,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>42559</v>
+        <v>42558</v>
       </c>
       <c r="B115" s="2">
         <v>0.375</v>
@@ -2616,12 +2691,12 @@
         <v>91</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>42559</v>
+        <v>42558</v>
       </c>
       <c r="B116" s="2">
         <v>0.70833333333333337</v>
@@ -2632,7 +2707,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>42562</v>
+        <v>42559</v>
       </c>
       <c r="B117" s="2">
         <v>0.375</v>
@@ -2641,12 +2716,12 @@
         <v>91</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>42562</v>
+        <v>42559</v>
       </c>
       <c r="B118" s="2">
         <v>0.70833333333333337</v>
@@ -2657,30 +2732,27 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>42563</v>
+        <v>42562</v>
       </c>
       <c r="B119" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>42563</v>
+        <v>42562</v>
       </c>
       <c r="B120" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,13 +2760,13 @@
         <v>42563</v>
       </c>
       <c r="B121" s="2">
-        <v>0.38541666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,13 +2774,13 @@
         <v>42563</v>
       </c>
       <c r="B122" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,13 +2788,13 @@
         <v>42563</v>
       </c>
       <c r="B123" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D123" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,10 +2802,13 @@
         <v>42563</v>
       </c>
       <c r="B124" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="D124" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,16 +2816,13 @@
         <v>42563</v>
       </c>
       <c r="B125" s="2">
-        <v>0.53125</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,16 +2830,10 @@
         <v>42563</v>
       </c>
       <c r="B126" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
-      </c>
-      <c r="D126" t="s">
-        <v>163</v>
-      </c>
-      <c r="E126" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,13 +2841,16 @@
         <v>42563</v>
       </c>
       <c r="B127" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.53125</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D127" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,16 +2858,16 @@
         <v>42563</v>
       </c>
       <c r="B128" s="2">
-        <v>0.625</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="C128" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="E128" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,13 +2875,13 @@
         <v>42563</v>
       </c>
       <c r="B129" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,7 +2889,7 @@
         <v>42563</v>
       </c>
       <c r="B130" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.625</v>
       </c>
       <c r="C130" t="s">
         <v>114</v>
@@ -2829,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,38 +2906,41 @@
         <v>42563</v>
       </c>
       <c r="B131" s="2">
-        <v>0.74652777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42564</v>
+        <v>42563</v>
       </c>
       <c r="B132" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42564</v>
+        <v>42563</v>
       </c>
       <c r="B133" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,16 +2948,13 @@
         <v>42564</v>
       </c>
       <c r="B134" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,13 +2962,13 @@
         <v>42564</v>
       </c>
       <c r="B135" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C135" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,16 +2976,16 @@
         <v>42564</v>
       </c>
       <c r="B136" s="2">
-        <v>0.42430555555555555</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="C136" t="s">
         <v>122</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,13 +2993,13 @@
         <v>42564</v>
       </c>
       <c r="B137" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C137" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,10 +3007,16 @@
         <v>42564</v>
       </c>
       <c r="B138" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="D138" t="s">
+        <v>164</v>
+      </c>
+      <c r="E138" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,13 +3024,13 @@
         <v>42564</v>
       </c>
       <c r="B139" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,13 +3038,10 @@
         <v>42564</v>
       </c>
       <c r="B140" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,13 +3049,13 @@
         <v>42564</v>
       </c>
       <c r="B141" s="2">
-        <v>0.5625</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,10 +3063,13 @@
         <v>42564</v>
       </c>
       <c r="B142" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C142" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D142" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3002,13 +3077,13 @@
         <v>42564</v>
       </c>
       <c r="B143" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,13 +3091,10 @@
         <v>42564</v>
       </c>
       <c r="B144" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,38 +3102,38 @@
         <v>42564</v>
       </c>
       <c r="B145" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>42565</v>
+        <v>42564</v>
       </c>
       <c r="B146" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>42565</v>
+        <v>42564</v>
       </c>
       <c r="B147" s="2">
-        <v>0.43055555555555558</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3069,13 +3141,13 @@
         <v>42565</v>
       </c>
       <c r="B148" s="2">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,13 +3155,13 @@
         <v>42565</v>
       </c>
       <c r="B149" s="2">
-        <v>0.5</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,10 +3169,13 @@
         <v>42565</v>
       </c>
       <c r="B150" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,13 +3183,13 @@
         <v>42565</v>
       </c>
       <c r="B151" s="2">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,13 +3197,10 @@
         <v>42565</v>
       </c>
       <c r="B152" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3136,16 +3208,13 @@
         <v>42565</v>
       </c>
       <c r="B153" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.53125</v>
       </c>
       <c r="C153" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>171</v>
-      </c>
-      <c r="E153" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,16 +3222,13 @@
         <v>42565</v>
       </c>
       <c r="B154" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C154" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
-      </c>
-      <c r="E154" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,16 +3236,16 @@
         <v>42565</v>
       </c>
       <c r="B155" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C155" t="s">
         <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E155" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,13 +3253,16 @@
         <v>42565</v>
       </c>
       <c r="B156" s="2">
-        <v>0.6875</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="E156" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,38 +3270,41 @@
         <v>42565</v>
       </c>
       <c r="B157" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="D157" t="s">
+        <v>170</v>
+      </c>
+      <c r="E157" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42566</v>
+        <v>42565</v>
       </c>
       <c r="B158" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.6875</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42566</v>
+        <v>42565</v>
       </c>
       <c r="B159" s="2">
-        <v>0.37152777777777773</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C159" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,13 +3312,13 @@
         <v>42566</v>
       </c>
       <c r="B160" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,16 +3326,13 @@
         <v>42566</v>
       </c>
       <c r="B161" s="2">
-        <v>0.38194444444444442</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>174</v>
-      </c>
-      <c r="E161" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,16 +3340,13 @@
         <v>42566</v>
       </c>
       <c r="B162" s="2">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="C162" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,16 +3354,16 @@
         <v>42566</v>
       </c>
       <c r="B163" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C163" t="s">
         <v>122</v>
       </c>
       <c r="D163" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E163" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,13 +3371,16 @@
         <v>42566</v>
       </c>
       <c r="B164" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,13 +3388,13 @@
         <v>42566</v>
       </c>
       <c r="B165" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D165" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E165" t="s">
         <v>118</v>
@@ -3336,10 +3405,13 @@
         <v>42566</v>
       </c>
       <c r="B166" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,13 +3419,16 @@
         <v>42566</v>
       </c>
       <c r="B167" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="C167" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="E167" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,16 +3436,10 @@
         <v>42566</v>
       </c>
       <c r="B168" s="2">
-        <v>0.55555555555555558</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C168" t="s">
-        <v>122</v>
-      </c>
-      <c r="D168" t="s">
-        <v>177</v>
-      </c>
-      <c r="E168" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,13 +3447,13 @@
         <v>42566</v>
       </c>
       <c r="B169" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C169" t="s">
-        <v>122</v>
-      </c>
-      <c r="E169" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3392,16 +3461,16 @@
         <v>42566</v>
       </c>
       <c r="B170" s="2">
-        <v>0.59027777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D170" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E170" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,13 +3478,13 @@
         <v>42566</v>
       </c>
       <c r="B171" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
-      </c>
-      <c r="D171" t="s">
-        <v>180</v>
+        <v>122</v>
+      </c>
+      <c r="E171" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,13 +3492,16 @@
         <v>42566</v>
       </c>
       <c r="B172" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="C172" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="E172" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3437,38 +3509,38 @@
         <v>42566</v>
       </c>
       <c r="B173" s="2">
-        <v>0.6875</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="D173" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>42569</v>
+        <v>42566</v>
       </c>
       <c r="B174" s="2">
-        <v>0.38194444444444442</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>42569</v>
+        <v>42566</v>
       </c>
       <c r="B175" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.6875</v>
       </c>
       <c r="C175" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,13 +3548,13 @@
         <v>42569</v>
       </c>
       <c r="B176" s="2">
-        <v>0.40625</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C176" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,16 +3562,13 @@
         <v>42569</v>
       </c>
       <c r="B177" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>184</v>
-      </c>
-      <c r="E177" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,16 +3576,13 @@
         <v>42569</v>
       </c>
       <c r="B178" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="C178" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D178" t="s">
-        <v>184</v>
-      </c>
-      <c r="E178" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,13 +3590,16 @@
         <v>42569</v>
       </c>
       <c r="B179" s="2">
-        <v>0.5</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C179" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="E179" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,13 +3607,16 @@
         <v>42569</v>
       </c>
       <c r="B180" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C180" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>182</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,16 +3624,13 @@
         <v>42569</v>
       </c>
       <c r="B181" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C181" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,16 +3638,13 @@
         <v>42569</v>
       </c>
       <c r="B182" s="2">
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D182" t="s">
-        <v>187</v>
-      </c>
-      <c r="E182" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,13 +3652,13 @@
         <v>42569</v>
       </c>
       <c r="B183" s="2">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="C183" t="s">
         <v>138</v>
       </c>
       <c r="D183" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E183" t="s">
         <v>130</v>
@@ -3603,16 +3669,16 @@
         <v>42569</v>
       </c>
       <c r="B184" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C184" t="s">
         <v>138</v>
       </c>
       <c r="D184" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3620,13 +3686,16 @@
         <v>42569</v>
       </c>
       <c r="B185" s="2">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>186</v>
+      </c>
+      <c r="E185" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,13 +3703,16 @@
         <v>42569</v>
       </c>
       <c r="B186" s="2">
-        <v>0.69444444444444453</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="E186" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,101 +3720,800 @@
         <v>42569</v>
       </c>
       <c r="B187" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B189" s="2">
         <v>0.71666666666666667</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C189" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A192" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C193" t="s">
+        <v>190</v>
+      </c>
+      <c r="D193" t="s">
+        <v>191</v>
+      </c>
+      <c r="E193" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C194" t="s">
+        <v>190</v>
+      </c>
+      <c r="D194" t="s">
+        <v>191</v>
+      </c>
+      <c r="E194" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C198" t="s">
+        <v>190</v>
+      </c>
+      <c r="D198" t="s">
+        <v>192</v>
+      </c>
+      <c r="E198" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C199" t="s">
+        <v>194</v>
+      </c>
+      <c r="D199" t="s">
+        <v>193</v>
+      </c>
+      <c r="E199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C201" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D202" t="s">
+        <v>197</v>
+      </c>
+      <c r="E202" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C203" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" t="s">
+        <v>84</v>
+      </c>
+      <c r="E203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C207" t="s">
+        <v>200</v>
+      </c>
+      <c r="D207" t="s">
+        <v>84</v>
+      </c>
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C209" t="s">
+        <v>203</v>
+      </c>
+      <c r="D209" t="s">
+        <v>202</v>
+      </c>
+      <c r="E209" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="C210" t="s">
+        <v>98</v>
+      </c>
+      <c r="D210" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C211" t="s">
+        <v>90</v>
+      </c>
+      <c r="D211" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="C213" t="s">
+        <v>206</v>
+      </c>
+      <c r="D213" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B218" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C218" t="s">
+        <v>206</v>
+      </c>
+      <c r="D218" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B222" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C229" t="s">
+        <v>206</v>
+      </c>
+      <c r="D229" t="s">
+        <v>191</v>
+      </c>
+      <c r="E229" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C231" t="s">
+        <v>206</v>
+      </c>
+      <c r="D231" t="s">
+        <v>191</v>
+      </c>
+      <c r="E231" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C232" t="s">
+        <v>206</v>
+      </c>
+      <c r="D232" t="s">
+        <v>191</v>
+      </c>
+      <c r="E232" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C234" t="s">
+        <v>206</v>
+      </c>
+      <c r="D234" t="s">
+        <v>202</v>
+      </c>
+      <c r="E234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C235" t="s">
+        <v>206</v>
+      </c>
+      <c r="D235" t="s">
+        <v>202</v>
+      </c>
+      <c r="E235" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C237" t="s">
+        <v>206</v>
+      </c>
+      <c r="D237" t="s">
+        <v>191</v>
+      </c>
+      <c r="E237" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19890" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="21060" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:A255"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4458,7 @@
         <v>42572</v>
       </c>
       <c r="B238" s="2">
-        <v>0.65625</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>

--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="24570" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="214">
   <si>
     <t>GENIE Fly Work</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>timesheet</t>
+  </si>
+  <si>
+    <t>confocal tables updates</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251:XFD251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3838,7 @@
         <v>42570</v>
       </c>
       <c r="B195" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4461,59 +4464,188 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C241" t="s">
+        <v>206</v>
+      </c>
+      <c r="D241" t="s">
+        <v>185</v>
+      </c>
+      <c r="E241" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="C242" t="s">
+        <v>206</v>
+      </c>
+      <c r="D242" t="s">
+        <v>185</v>
+      </c>
+      <c r="E242" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C243" t="s">
+        <v>200</v>
+      </c>
+      <c r="D243" t="s">
+        <v>185</v>
+      </c>
+      <c r="E243" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C244" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C245" t="s">
+        <v>91</v>
+      </c>
+      <c r="D245" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C248" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C249" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/20160620/Daily_log_20160620.xlsx
+++ b/20160620/Daily_log_20160620.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24570" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="25740" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="chargebacks">Sheet2!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="213">
   <si>
     <t>GENIE Fly Work</t>
   </si>
@@ -549,12 +549,6 @@
     <t>stats for Susana's run</t>
   </si>
   <si>
-    <t>20160603_101_20X</t>
-  </si>
-  <si>
-    <t>20160701_100_20X</t>
-  </si>
-  <si>
     <t>stats</t>
   </si>
   <si>
@@ -670,6 +664,9 @@
   </si>
   <si>
     <t>confocal tables updates</t>
+  </si>
+  <si>
+    <t>20160701_100_SH</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:XFD251"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2173,7 @@
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
         <v>94</v>
@@ -2193,7 +2190,7 @@
         <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
         <v>94</v>
@@ -2210,7 +2207,7 @@
         <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
         <v>94</v>
@@ -3366,7 +3363,7 @@
         <v>172</v>
       </c>
       <c r="E163" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,7 +3394,7 @@
         <v>122</v>
       </c>
       <c r="D165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E165" t="s">
         <v>118</v>
@@ -3428,7 +3425,7 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E167" t="s">
         <v>118</v>
@@ -3456,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,7 +3467,7 @@
         <v>122</v>
       </c>
       <c r="D170" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E170" t="s">
         <v>115</v>
@@ -3501,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E172" t="s">
         <v>142</v>
@@ -3518,7 +3515,7 @@
         <v>86</v>
       </c>
       <c r="D173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3532,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3568,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,7 +3582,7 @@
         <v>90</v>
       </c>
       <c r="D178" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,7 +3596,7 @@
         <v>138</v>
       </c>
       <c r="D179" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E179" t="s">
         <v>130</v>
@@ -3616,10 +3613,10 @@
         <v>138</v>
       </c>
       <c r="D180" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="D181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,7 +3658,7 @@
         <v>138</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E183" t="s">
         <v>130</v>
@@ -3678,10 +3675,10 @@
         <v>138</v>
       </c>
       <c r="D184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,7 +3692,7 @@
         <v>138</v>
       </c>
       <c r="D185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E185" t="s">
         <v>130</v>
@@ -3712,10 +3709,10 @@
         <v>138</v>
       </c>
       <c r="D186" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,10 +3804,10 @@
         <v>0.46875</v>
       </c>
       <c r="C193" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D193" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E193" t="s">
         <v>160</v>
@@ -3824,10 +3821,10 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C194" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D194" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E194" t="s">
         <v>142</v>
@@ -3880,10 +3877,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="C198" t="s">
+        <v>188</v>
+      </c>
+      <c r="D198" t="s">
         <v>190</v>
-      </c>
-      <c r="D198" t="s">
-        <v>192</v>
       </c>
       <c r="E198" t="s">
         <v>160</v>
@@ -3897,10 +3894,10 @@
         <v>0.625</v>
       </c>
       <c r="C199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D199" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
         <v>160</v>
@@ -3928,7 +3925,7 @@
         <v>90</v>
       </c>
       <c r="D201" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -3939,13 +3936,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C202" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202" t="s">
+        <v>195</v>
+      </c>
+      <c r="E202" t="s">
         <v>196</v>
-      </c>
-      <c r="D202" t="s">
-        <v>197</v>
-      </c>
-      <c r="E202" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,7 +3959,7 @@
         <v>84</v>
       </c>
       <c r="E203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4001,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,13 +4009,13 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="C207" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D207" t="s">
         <v>84</v>
       </c>
       <c r="E207" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,10 +4040,10 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D209" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
         <v>160</v>
@@ -4063,7 +4060,7 @@
         <v>98</v>
       </c>
       <c r="D210" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,7 +4074,7 @@
         <v>90</v>
       </c>
       <c r="D211" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4091,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4102,10 +4099,10 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="C213" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D213" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,10 +4166,10 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C218" t="s">
+        <v>204</v>
+      </c>
+      <c r="D218" t="s">
         <v>206</v>
-      </c>
-      <c r="D218" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="D220" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4228,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4253,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4295,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,10 +4317,10 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C229" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D229" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E229" t="s">
         <v>130</v>
@@ -4340,7 +4337,7 @@
         <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4351,10 +4348,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C231" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E231" t="s">
         <v>130</v>
@@ -4368,13 +4365,13 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C232" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D232" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E232" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4399,10 +4396,10 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="C234" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D234" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E234" t="s">
         <v>130</v>
@@ -4416,13 +4413,13 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C235" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D235" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E235" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4436,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,10 +4444,10 @@
         <v>0.65625</v>
       </c>
       <c r="C237" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D237" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E237" t="s">
         <v>130</v>
@@ -4481,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -4495,7 +4492,7 @@
         <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,10 +4503,10 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="C241" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D241" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E241" t="s">
         <v>130</v>
@@ -4523,13 +4520,13 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="C242" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D242" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E242" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -4540,13 +4537,13 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="C243" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D243" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E243" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,7 +4607,7 @@
         <v>0.5625</v>
       </c>
       <c r="C248" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,7 +4618,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C249" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
